--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SIC/Desktop/Daily Production sales reports/Jan to Dec 2026/Jan 2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B967285B-6688-724F-BDAB-819C2A3CC6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E53B79-A4E0-B543-A427-6259CDFFD6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="620" windowWidth="23180" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13200" yWindow="620" windowWidth="23180" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yMicI7VoFwVWIEzds9RF00ETU04uHBWwGDCI120arbA="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t xml:space="preserve">Rajpardi Lignite Mine Production,Sales Data </t>
   </si>
@@ -44,430 +41,112 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Daily Quantity</t>
+  </si>
+  <si>
+    <t>Cumulative Monthly Quantity</t>
+  </si>
+  <si>
+    <t>Cumulative Yearly
+Quantity</t>
+  </si>
+  <si>
     <t>Last Year Comparison</t>
+  </si>
+  <si>
+    <t>Remaining stock of Lignite (In MT
+approx.)</t>
+  </si>
+  <si>
+    <t>On date</t>
+  </si>
+  <si>
+    <t>FY 2025-26</t>
   </si>
   <si>
     <t>FY 2024-25</t>
   </si>
   <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>Ball Clay</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>SILICA EQM LTS</t>
+  </si>
+  <si>
+    <t>SILICA ABHIRAJ EOI</t>
+  </si>
+  <si>
+    <t>SILICA ABS LTS</t>
+  </si>
+  <si>
+    <t>SILICA ALPHA LTS</t>
+  </si>
+  <si>
+    <t>SILICA GM LTS</t>
+  </si>
+  <si>
+    <t>SILICA KULLP LTS</t>
+  </si>
+  <si>
+    <t>SILICA MMCL LTS</t>
+  </si>
+  <si>
+    <t>SILICA MMPL LTS</t>
+  </si>
+  <si>
+    <t>SILICA SAND LTS</t>
+  </si>
+  <si>
+    <t>SILICA SHM LTS</t>
+  </si>
+  <si>
+    <t>SILICA SRM LTS</t>
+  </si>
+  <si>
+    <t>SILICA SAND</t>
+  </si>
+  <si>
+    <t>Cumulative Silica Sand</t>
+  </si>
+  <si>
+    <t>OBR in M3</t>
   </si>
   <si>
     <t>RAINFALL(In mm)</t>
   </si>
   <si>
+    <t>Pumping Details Sump. no : 01</t>
+  </si>
+  <si>
+    <t>Nos. of Pump</t>
+  </si>
+  <si>
     <t>Total 10 Pumps of 180HP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Daily Quantity</t>
-    </r>
+    <t>Pumping Hours</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cumulative Monthly Quantity</t>
-    </r>
+    <t>Pumping Qty. (M3)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cumulative Yearly
-Quantity</t>
-    </r>
+    <t>Remaining Water
+Qty. (M3) in Sumps</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Remaining stock of Lignite (In MT
-approx.)</t>
-    </r>
+    <t>Sump.no.01 : 7 LacM3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>On date</t>
-    </r>
+    <t>SILICA AE LTS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>FY 2025-26</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lignite</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Ball Clay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA EQM LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA ABHIRAJ EOI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA ABS LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA ALPHA LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA GM LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA MMCL LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA MMPL LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA SAND LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA SHM LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA SRM LTS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>SILICA SAND</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Cumulative Silica Sand</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>OBR in M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pumping Details Sump. no : 01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nos. of Pump</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pumping Hours</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pumping Qty. (M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Remaining Water
-Qty. (M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) in Sumps</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Sump.no.01 : 7 LacM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="18"/>
-        <color rgb="FF000007"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>SILICA KULLP LTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Date: 18-01-2026</t>
+    <t>Date: 21-01-2026</t>
   </si>
 </sst>
 </file>
@@ -480,7 +159,7 @@
     <numFmt numFmtId="166" formatCode="00"/>
     <numFmt numFmtId="167" formatCode="000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -501,11 +180,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -515,11 +189,6 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -575,28 +244,15 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
-      <sz val="18"/>
-      <color rgb="FF000007"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -617,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -629,19 +285,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -669,17 +312,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -813,148 +445,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,66 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="314325" cy="228600"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5193600" y="3670463"/>
-          <a:ext cx="304800" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1400"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,36 +771,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H19"/>
+      <selection activeCell="G7" sqref="G7:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.796875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="33.19921875" customWidth="1"/>
-    <col min="4" max="4" width="31.3984375" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" customWidth="1"/>
-    <col min="6" max="6" width="32.3984375" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="38.3984375" customWidth="1"/>
-    <col min="9" max="26" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10" style="21" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="32.3984375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="30" style="21" customWidth="1"/>
+    <col min="8" max="8" width="38.3984375" style="21" customWidth="1"/>
+    <col min="9" max="26" width="8.796875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1280,16 +821,16 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1310,25 +851,25 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="76" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
+      <c r="F3" s="42" t="s">
+        <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="H3" s="36" t="s">
-        <v>10</v>
+      <c r="H3" s="43" t="s">
+        <v>6</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1350,22 +891,22 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
+      <c r="A4" s="36"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>46023</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>3</v>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="1"/>
@@ -1386,26 +927,26 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="23"/>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>114267.93</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -1428,27 +969,27 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="23"/>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>4653.62</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>58342.205000000002</v>
       </c>
-      <c r="G6" s="21">
-        <v>130804.83</v>
+      <c r="G6" s="20">
+        <v>1133680.78</v>
       </c>
-      <c r="H6" s="44" t="s">
-        <v>4</v>
+      <c r="H6" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1470,26 +1011,26 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="23"/>
-      <c r="D7" s="14">
-        <v>4385.3549999999996</v>
+      <c r="D7" s="13">
+        <v>4110.2950000000001</v>
       </c>
-      <c r="E7" s="14">
-        <v>29341.47</v>
+      <c r="E7" s="13">
+        <v>42169.434999999998</v>
       </c>
-      <c r="F7" s="14">
-        <v>334686.375</v>
+      <c r="F7" s="13">
+        <v>347514.34</v>
       </c>
-      <c r="G7" s="46">
-        <v>511907.62</v>
+      <c r="G7" s="24">
+        <v>513138.74</v>
       </c>
-      <c r="H7" s="45"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1510,24 +1051,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="14">
-        <v>2642.7950000000001</v>
+      <c r="D8" s="13">
+        <v>3009.3449999999998</v>
       </c>
-      <c r="E8" s="14">
-        <v>20819.865000000002</v>
+      <c r="E8" s="13">
+        <v>28951.255000000001</v>
       </c>
-      <c r="F8" s="14">
-        <v>179908.19500000001</v>
+      <c r="F8" s="13">
+        <v>188039.58499999999</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1548,24 +1089,24 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="14">
-        <v>22.57</v>
+      <c r="D9" s="13">
+        <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>1097.99</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>8409.18</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1586,24 +1127,24 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C10" s="23"/>
-      <c r="D10" s="14">
-        <v>289.96499999999997</v>
+      <c r="D10" s="13">
+        <v>84.88</v>
       </c>
-      <c r="E10" s="14">
-        <v>819.67499999999995</v>
+      <c r="E10" s="13">
+        <v>84.88</v>
       </c>
-      <c r="F10" s="14">
-        <v>11529.44</v>
+      <c r="F10" s="13">
+        <v>84.88</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1624,24 +1165,24 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="23"/>
-      <c r="D11" s="14">
-        <v>767.36</v>
+      <c r="D11" s="13">
+        <v>110.895</v>
       </c>
-      <c r="E11" s="14">
-        <v>7653.8850000000002</v>
+      <c r="E11" s="13">
+        <v>1127.8050000000001</v>
       </c>
-      <c r="F11" s="14">
-        <v>33936.04</v>
+      <c r="F11" s="13">
+        <v>11837.57</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1662,24 +1203,24 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
+      <c r="B12" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="14">
-        <v>468.39</v>
+      <c r="D12" s="13">
+        <v>1176.1849999999999</v>
       </c>
-      <c r="E12" s="14">
-        <v>2797.4050000000002</v>
+      <c r="E12" s="13">
+        <v>10919.77</v>
       </c>
-      <c r="F12" s="14">
-        <v>13271.455</v>
+      <c r="F12" s="13">
+        <v>37201.925000000003</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="45"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1700,24 +1241,24 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>20</v>
+      <c r="B13" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="23"/>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0</v>
       </c>
-      <c r="E13" s="14">
-        <v>0</v>
+      <c r="E13" s="13">
+        <v>3043.29</v>
       </c>
-      <c r="F13" s="14">
-        <v>22.52</v>
+      <c r="F13" s="13">
+        <v>13517.34</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="45"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1738,24 +1279,24 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="14">
-        <v>286.76</v>
+      <c r="D14" s="13">
+        <v>0</v>
       </c>
-      <c r="E14" s="14">
-        <v>3837.4250000000002</v>
+      <c r="E14" s="13">
+        <v>0</v>
       </c>
-      <c r="F14" s="14">
-        <v>5578.585</v>
+      <c r="F14" s="13">
+        <v>22.52</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="45"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1776,24 +1317,24 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="14">
-        <v>7170.06</v>
+      <c r="D15" s="13">
+        <v>352.32</v>
       </c>
-      <c r="E15" s="14">
-        <v>48485.19</v>
+      <c r="E15" s="13">
+        <v>4793.9250000000002</v>
       </c>
-      <c r="F15" s="14">
-        <v>734286.745</v>
+      <c r="F15" s="13">
+        <v>6635.085</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="45"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1814,24 +1355,24 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="23"/>
-      <c r="D16" s="14">
-        <v>0</v>
+      <c r="D16" s="13">
+        <v>6491.3850000000002</v>
       </c>
-      <c r="E16" s="14">
-        <v>0</v>
+      <c r="E16" s="13">
+        <v>65992.66</v>
       </c>
-      <c r="F16" s="14">
-        <v>910.49</v>
+      <c r="F16" s="13">
+        <v>751794.21499999997</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="45"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1852,24 +1393,24 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="23"/>
-      <c r="D17" s="14">
-        <v>2247.91</v>
+      <c r="D17" s="13">
+        <v>0</v>
       </c>
-      <c r="E17" s="14">
-        <v>12931.045</v>
+      <c r="E17" s="13">
+        <v>0</v>
       </c>
-      <c r="F17" s="14">
-        <v>28069.67</v>
+      <c r="F17" s="13">
+        <v>910.49</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="45"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1890,24 +1431,24 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="14">
-        <v>352.315</v>
+      <c r="D18" s="13">
+        <v>2526.2399999999998</v>
       </c>
-      <c r="E18" s="14">
-        <v>2261.58</v>
+      <c r="E18" s="13">
+        <v>19653.145</v>
       </c>
-      <c r="F18" s="14">
-        <v>112003.94</v>
+      <c r="F18" s="13">
+        <v>34791.769999999997</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="45"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1928,24 +1469,24 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="23"/>
-      <c r="D19" s="14">
-        <v>18633.48</v>
+      <c r="D19" s="13">
+        <v>780.24</v>
       </c>
-      <c r="E19" s="14">
-        <v>130045.53</v>
+      <c r="E19" s="13">
+        <v>3872.125</v>
       </c>
-      <c r="F19" s="14">
-        <v>1462612.635</v>
+      <c r="F19" s="13">
+        <v>113614.485</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1966,28 +1507,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>16</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>27</v>
+      <c r="B20" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="15">
-        <v>0</v>
+      <c r="D20" s="13">
+        <f>SUM(D7:D19)</f>
+        <v>18641.785</v>
       </c>
-      <c r="E20" s="15">
-        <v>0</v>
+      <c r="E20" s="13">
+        <f>SUM(E7:E19)</f>
+        <v>181706.28</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
+      <c r="F20" s="13">
+        <f>SUM(F7:F19)</f>
+        <v>1514373.3850000002</v>
       </c>
-      <c r="G20" s="11">
-        <v>1937905</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>4</v>
-      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2007,26 +1547,28 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
+    <row r="21" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>17</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="17">
+      <c r="B21" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="14">
         <v>0</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
-        <v>1606</v>
+      <c r="F21" s="14">
+        <v>0</v>
       </c>
-      <c r="G21" s="11">
-        <v>1718</v>
+      <c r="G21" s="10">
+        <v>1937905</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>4</v>
+      <c r="H21" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2047,21 +1589,27 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="37" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
-        <v>28</v>
+    <row r="22" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="22" t="s">
+        <v>27</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="18" t="s">
-        <v>29</v>
+      <c r="C22" s="23"/>
+      <c r="D22" s="16">
+        <v>0</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>6</v>
+      <c r="E22" s="16">
+        <v>0</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="10">
+        <v>1606</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1718</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2081,27 +1629,21 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="18" t="s">
+    <row r="23" spans="1:26" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
-        <v>3019</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2121,26 +1663,26 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="10" t="s">
-        <v>32</v>
+    <row r="24" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17" t="s">
+        <v>31</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>0</v>
       </c>
-      <c r="F24" s="11">
-        <v>648643</v>
+      <c r="F24" s="10">
+        <v>3019</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>31</v>
+      <c r="G24" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>31</v>
+      <c r="H24" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2161,22 +1703,26 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="33"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="10" t="s">
-        <v>33</v>
+    <row r="25" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="9" t="s">
+        <v>32</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>34</v>
+      <c r="D25" s="18">
+        <v>0</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="16" t="s">
-        <v>31</v>
+      <c r="E25" s="18">
+        <v>0</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>31</v>
+      <c r="F25" s="10">
+        <v>648643</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2197,15 +1743,23 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -29497,37 +29051,68 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
     </row>
+    <row r="1001" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A23:B26"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="H6:H20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:G20"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="H6:H19"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:C4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D20:F20" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>